--- a/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.76910575644871</v>
+        <v>93.08637301665559</v>
       </c>
       <c r="D2" t="n">
-        <v>11.00349184803982</v>
+        <v>9.771682554810866</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.55331248576042</v>
+        <v>90.79924271182463</v>
       </c>
       <c r="D3" t="n">
-        <v>9.272646000458113</v>
+        <v>9.791720028724276</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.87110390905822</v>
+        <v>92.00880546176195</v>
       </c>
       <c r="D4" t="n">
-        <v>10.70230775874891</v>
+        <v>9.977370886751276</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.9745939327014</v>
+        <v>89.29292989050174</v>
       </c>
       <c r="D5" t="n">
-        <v>9.610499379022938</v>
+        <v>9.573715339116964</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.87349476123072</v>
+        <v>89.87898188673546</v>
       </c>
       <c r="D6" t="n">
-        <v>10.27347546627691</v>
+        <v>8.899858159802235</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.60582387061834</v>
+        <v>86.58712818545492</v>
       </c>
       <c r="D7" t="n">
-        <v>10.6232116391558</v>
+        <v>9.17518309180627</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.54568718445442</v>
+        <v>86.81751422462261</v>
       </c>
       <c r="D8" t="n">
-        <v>9.300457452630589</v>
+        <v>9.656947154465049</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.44292738607147</v>
+        <v>85.22506848182591</v>
       </c>
       <c r="D9" t="n">
-        <v>9.321517038421275</v>
+        <v>9.478191536162331</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.32403766695647</v>
+        <v>83.49034571137075</v>
       </c>
       <c r="D10" t="n">
-        <v>9.99673700473082</v>
+        <v>10.46417727796428</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.33646321919836</v>
+        <v>85.60685368794428</v>
       </c>
       <c r="D11" t="n">
-        <v>10.61852551094604</v>
+        <v>8.80365386675904</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.11819461623209</v>
+        <v>82.0163146578024</v>
       </c>
       <c r="D12" t="n">
-        <v>9.677023497651602</v>
+        <v>9.344653066983993</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.56375189575245</v>
+        <v>81.52869382416728</v>
       </c>
       <c r="D13" t="n">
-        <v>10.56794725741435</v>
+        <v>10.06515078166958</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.84709919185384</v>
+        <v>79.52992072886124</v>
       </c>
       <c r="D14" t="n">
-        <v>10.91529067104361</v>
+        <v>9.563665730549896</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.50048940041803</v>
+        <v>77.66444650745986</v>
       </c>
       <c r="D15" t="n">
-        <v>9.497533235553933</v>
+        <v>9.216287175584283</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.50857163528009</v>
+        <v>78.86599015111265</v>
       </c>
       <c r="D16" t="n">
-        <v>8.603162128620049</v>
+        <v>9.785890176696931</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.36536687731561</v>
+        <v>78.25796400016888</v>
       </c>
       <c r="D17" t="n">
-        <v>9.722089307925701</v>
+        <v>9.612280359092129</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.84597899196633</v>
+        <v>75.70928110265407</v>
       </c>
       <c r="D18" t="n">
-        <v>9.085122450896767</v>
+        <v>8.204668032537718</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.76272928672493</v>
+        <v>76.81474991390651</v>
       </c>
       <c r="D19" t="n">
-        <v>8.410885482992645</v>
+        <v>8.758997471908533</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.42976496478106</v>
+        <v>72.55843406875769</v>
       </c>
       <c r="D20" t="n">
-        <v>10.21728404946282</v>
+        <v>9.831742805177909</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.75645091520718</v>
+        <v>72.45130333714035</v>
       </c>
       <c r="D21" t="n">
-        <v>10.31806876053861</v>
+        <v>9.52542802663087</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.37048497033962</v>
+        <v>71.48379137002874</v>
       </c>
       <c r="D22" t="n">
-        <v>10.75597116663465</v>
+        <v>10.44642410552515</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.60585359360647</v>
+        <v>70.99065015331412</v>
       </c>
       <c r="D23" t="n">
-        <v>9.936713678521219</v>
+        <v>8.92506168812063</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.41491640135696</v>
+        <v>70.36526419917735</v>
       </c>
       <c r="D24" t="n">
-        <v>11.23532203408984</v>
+        <v>8.820625449009038</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.8892460034434</v>
+        <v>68.44084247639478</v>
       </c>
       <c r="D25" t="n">
-        <v>9.314449683959822</v>
+        <v>9.427658267564683</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.19527253489947</v>
+        <v>69.01527951550352</v>
       </c>
       <c r="D26" t="n">
-        <v>8.541691975142644</v>
+        <v>9.806445044756597</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.52622184207017</v>
+        <v>65.81570841888401</v>
       </c>
       <c r="D27" t="n">
-        <v>9.371059627816891</v>
+        <v>9.626108299672403</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.44009287287426</v>
+        <v>66.00307680293464</v>
       </c>
       <c r="D28" t="n">
-        <v>9.801676110090465</v>
+        <v>9.832527518397637</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.45652062230727</v>
+        <v>63.22616723176738</v>
       </c>
       <c r="D29" t="n">
-        <v>10.11284335563768</v>
+        <v>9.643863774315188</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.83224908917038</v>
+        <v>62.132181045629</v>
       </c>
       <c r="D30" t="n">
-        <v>11.65890097978196</v>
+        <v>9.786993329145096</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.10218735379193</v>
+        <v>63.170458516836</v>
       </c>
       <c r="D31" t="n">
-        <v>10.81049228587082</v>
+        <v>9.145762768659289</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.66874360887486</v>
+        <v>61.62417658762664</v>
       </c>
       <c r="D32" t="n">
-        <v>9.88740804853208</v>
+        <v>9.475052085539515</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.36712288975887</v>
+        <v>59.78035394154979</v>
       </c>
       <c r="D33" t="n">
-        <v>8.628745903013323</v>
+        <v>9.08316104712177</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.86533356581501</v>
+        <v>59.98114547275899</v>
       </c>
       <c r="D34" t="n">
-        <v>9.38378201545695</v>
+        <v>9.219576797611904</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.58777409119247</v>
+        <v>56.48825021965121</v>
       </c>
       <c r="D35" t="n">
-        <v>10.20491680131042</v>
+        <v>11.25664775214463</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.42722780416945</v>
+        <v>55.30414485855805</v>
       </c>
       <c r="D36" t="n">
-        <v>9.670316906098741</v>
+        <v>9.314656523623375</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.81677903826591</v>
+        <v>54.77122941804003</v>
       </c>
       <c r="D37" t="n">
-        <v>9.552063053565144</v>
+        <v>9.354171981620219</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.29337501160742</v>
+        <v>53.77858988209157</v>
       </c>
       <c r="D38" t="n">
-        <v>9.39088574145139</v>
+        <v>10.17071361070448</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.08276574407218</v>
+        <v>52.06630537090513</v>
       </c>
       <c r="D39" t="n">
-        <v>10.91429183279083</v>
+        <v>9.994921573845488</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.98320109659841</v>
+        <v>51.16509688017632</v>
       </c>
       <c r="D40" t="n">
-        <v>9.538289959620052</v>
+        <v>9.868316926722384</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.22683939553941</v>
+        <v>50.98857637650289</v>
       </c>
       <c r="D41" t="n">
-        <v>9.591643938527904</v>
+        <v>10.67242306957558</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.17267516616982</v>
+        <v>48.90822778468955</v>
       </c>
       <c r="D42" t="n">
-        <v>9.79577648627223</v>
+        <v>8.565857370920266</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.73396205664299</v>
+        <v>48.88743100489378</v>
       </c>
       <c r="D43" t="n">
-        <v>9.947019295734354</v>
+        <v>10.07709540317828</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.66308983112581</v>
+        <v>49.15861482902787</v>
       </c>
       <c r="D44" t="n">
-        <v>9.059243974550704</v>
+        <v>9.136426547246089</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.81385423043292</v>
+        <v>46.7782185292132</v>
       </c>
       <c r="D45" t="n">
-        <v>9.129159145547295</v>
+        <v>9.090516864485069</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.85231221044952</v>
+        <v>46.69984503085861</v>
       </c>
       <c r="D46" t="n">
-        <v>8.370178104984989</v>
+        <v>10.1009409612021</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.82246511422033</v>
+        <v>45.05107449755831</v>
       </c>
       <c r="D47" t="n">
-        <v>9.018609918062436</v>
+        <v>10.15833174265796</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.58826056587732</v>
+        <v>45.11384662297701</v>
       </c>
       <c r="D48" t="n">
-        <v>10.01552180426222</v>
+        <v>9.446599331357008</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.29566466996229</v>
+        <v>43.88538900656548</v>
       </c>
       <c r="D49" t="n">
-        <v>9.713841531457097</v>
+        <v>8.973795242751846</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.07830234784413</v>
+        <v>40.36990762299986</v>
       </c>
       <c r="D50" t="n">
-        <v>8.96163676224845</v>
+        <v>7.919734190031845</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.87704754538377</v>
+        <v>43.61881166976959</v>
       </c>
       <c r="D51" t="n">
-        <v>8.457823841055983</v>
+        <v>9.30835078842432</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.70723337592552</v>
+        <v>41.41161225410204</v>
       </c>
       <c r="D52" t="n">
-        <v>8.758171161672124</v>
+        <v>10.06824678469599</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.58143850598766</v>
+        <v>38.59919327974118</v>
       </c>
       <c r="D53" t="n">
-        <v>9.149157512575472</v>
+        <v>7.707261473725899</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.73537544147256</v>
+        <v>37.77208542204203</v>
       </c>
       <c r="D54" t="n">
-        <v>10.6005416714362</v>
+        <v>9.950893243363433</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.99062136186305</v>
+        <v>36.33747592550817</v>
       </c>
       <c r="D55" t="n">
-        <v>8.659231704779909</v>
+        <v>9.847450656185245</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.06532305416373</v>
+        <v>36.82917467134115</v>
       </c>
       <c r="D56" t="n">
-        <v>9.480609712681792</v>
+        <v>8.180433276201811</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.7885496370594</v>
+        <v>35.5856689032494</v>
       </c>
       <c r="D57" t="n">
-        <v>9.873109621363694</v>
+        <v>9.230151173438005</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.19664751242219</v>
+        <v>33.30659038421116</v>
       </c>
       <c r="D58" t="n">
-        <v>9.518206167379894</v>
+        <v>8.846202051096991</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.69051712444249</v>
+        <v>32.75312249617841</v>
       </c>
       <c r="D59" t="n">
-        <v>9.920196178067242</v>
+        <v>9.440237753840925</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.76256178774651</v>
+        <v>32.2652144548453</v>
       </c>
       <c r="D60" t="n">
-        <v>8.792570328956783</v>
+        <v>9.534565061354682</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.99076892733312</v>
+        <v>31.46223295337149</v>
       </c>
       <c r="D61" t="n">
-        <v>8.529558607889438</v>
+        <v>10.23726304635991</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.63895667947362</v>
+        <v>29.14251561200438</v>
       </c>
       <c r="D62" t="n">
-        <v>8.775398432638154</v>
+        <v>9.728062755713385</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.83215193007653</v>
+        <v>28.90089407648635</v>
       </c>
       <c r="D63" t="n">
-        <v>8.276841395785231</v>
+        <v>10.33320469329202</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.48509102814767</v>
+        <v>28.47874780841202</v>
       </c>
       <c r="D64" t="n">
-        <v>10.0008537949192</v>
+        <v>8.680940477789369</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.63010922043654</v>
+        <v>26.16462697668695</v>
       </c>
       <c r="D65" t="n">
-        <v>8.9345520357738</v>
+        <v>9.545471543117461</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.01144038220436</v>
+        <v>27.50107637373235</v>
       </c>
       <c r="D66" t="n">
-        <v>10.10336342095262</v>
+        <v>9.788167850320892</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.93919544929507</v>
+        <v>25.36454589849668</v>
       </c>
       <c r="D67" t="n">
-        <v>9.16929260437327</v>
+        <v>8.822842292354</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.65357961666567</v>
+        <v>22.68563554738619</v>
       </c>
       <c r="D68" t="n">
-        <v>8.821671892086702</v>
+        <v>8.572001269764879</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.69515111824694</v>
+        <v>23.94671729421639</v>
       </c>
       <c r="D69" t="n">
-        <v>9.124309414911201</v>
+        <v>8.448843205069419</v>
       </c>
     </row>
   </sheetData>
